--- a/InputFiles/TC37_Canine_StudyOSA01-Breed-PrimaryDiseaseSite.xlsx
+++ b/InputFiles/TC37_Canine_StudyOSA01-Breed-PrimaryDiseaseSite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\Desktop\Commons_Automation-Lakshmi_March\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52E3CEC-17EE-4638-A295-81FFB50F62A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC20E67-8E04-4A34-8152-1585B0913F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="2" r:id="rId1"/>
@@ -524,17 +524,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="3" width="86.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="3" width="86.54296875" customWidth="1"/>
     <col min="4" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="376.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="356.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="351" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="336.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="331.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
